--- a/pwbi/Risultati/TRS ESR.xlsx
+++ b/pwbi/Risultati/TRS ESR.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D4740C-3361-47B6-82D6-4BED4EA5A39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91CB83-1F31-4A1C-989A-36D56D714F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBEF9A08-792C-429A-A7B6-2C1581D050A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{FBEF9A08-792C-429A-A7B6-2C1581D050A7}"/>
   </bookViews>
   <sheets>
     <sheet name="risultati ESR" sheetId="2" r:id="rId1"/>
     <sheet name="risultati TRS" sheetId="3" r:id="rId2"/>
+    <sheet name="ESR spalle" sheetId="4" r:id="rId3"/>
+    <sheet name="TRS spalle" sheetId="5" r:id="rId4"/>
+    <sheet name="ESR pavim" sheetId="6" r:id="rId5"/>
+    <sheet name="TRS pavim" sheetId="7" r:id="rId6"/>
+    <sheet name="Foglio1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="14">
   <si>
     <t>ID Beam</t>
   </si>
@@ -48,25 +53,46 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>Travi</t>
+    <t>TRS</t>
   </si>
   <si>
-    <t>Traversi</t>
+    <t>Travi 1</t>
   </si>
   <si>
-    <t>Spalle</t>
+    <t>Travi 2</t>
   </si>
   <si>
-    <t>Pavimentazione</t>
+    <t>Traversi 1</t>
   </si>
   <si>
-    <t>TRS</t>
+    <t>Traversi 2</t>
+  </si>
+  <si>
+    <t>Traversi 3</t>
+  </si>
+  <si>
+    <t>Spalle 1</t>
+  </si>
+  <si>
+    <t>Spalle 2</t>
+  </si>
+  <si>
+    <t>Pavimentazione 1</t>
+  </si>
+  <si>
+    <t>Pavimentazione 2</t>
+  </si>
+  <si>
+    <t>totale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +206,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Colore 1 2" xfId="1" xr:uid="{E203C41E-4539-4DB6-871F-B7600BC5F82B}"/>
@@ -495,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F72452D-5D96-4BF6-BE8B-7D425099AFE2}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +540,7 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,9 +551,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>35.952749999999995</v>
@@ -527,10 +561,19 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>39.7575</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>33.131250000000001</v>
@@ -538,10 +581,19 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>34.524900000000002</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>29.411999999999999</v>
@@ -550,9 +602,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>26.205749999999998</v>
@@ -561,9 +613,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>22.23</v>
@@ -572,111 +624,111 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>35.952749999999995</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>33.131250000000001</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>29.411999999999999</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>26.205749999999998</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>22.23</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
         <v>39.7575</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
         <v>34.524900000000002</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>32.832000000000001</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
         <v>31.139099999999999</v>
       </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
         <v>26.368199999999995</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>47.281500000000001</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>44.887499999999996</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>39.201749999999997</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>32.917499999999997</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>28.8477</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -684,10 +736,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>43.75889999999999</v>
+        <v>39.7575</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -695,10 +747,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>39.9114</v>
+        <v>34.524900000000002</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -706,10 +758,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>31.6008</v>
+        <v>32.832000000000001</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -717,10 +769,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>24.2136</v>
+        <v>31.139099999999999</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -728,12 +780,67 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>17.954999999999998</v>
+        <v>26.368199999999995</v>
       </c>
       <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>39.7575</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>34.524900000000002</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>32.832000000000001</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>31.139099999999999</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>26.368199999999995</v>
+      </c>
+      <c r="C26">
         <v>20</v>
       </c>
     </row>
@@ -744,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BFA9D2-7117-4D96-8315-62912B78EA39}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -768,7 +875,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>77.657939999999982</v>
@@ -779,7 +886,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>71.563500000000005</v>
@@ -790,7 +897,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>63.529919999999997</v>
@@ -801,7 +908,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>56.080304999999989</v>
@@ -812,7 +919,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>46.683000000000007</v>
@@ -823,10 +930,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>71.563500000000005</v>
+        <v>77.657939999999982</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -834,10 +941,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>62.14482000000001</v>
+        <v>71.563500000000005</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -845,10 +952,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>59.0976</v>
+        <v>63.529919999999997</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -856,10 +963,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>55.531394999999996</v>
+        <v>56.080304999999989</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -867,10 +974,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>46.144350000000003</v>
+        <v>46.683000000000007</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -878,10 +985,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>72.948599999999999</v>
+        <v>71.563500000000005</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -889,10 +996,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>76.180500000000009</v>
+        <v>62.14482000000001</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -900,10 +1007,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>66.530970000000011</v>
+        <v>59.0976</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -911,10 +1018,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>55.348424999999999</v>
+        <v>55.531394999999996</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -922,10 +1029,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>43.271550000000005</v>
+        <v>46.144350000000003</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -933,10 +1040,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>78.766019999999997</v>
+        <v>71.563500000000005</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -944,10 +1051,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>71.840519999999998</v>
+        <v>62.14482000000001</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -955,10 +1062,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>68.257728</v>
+        <v>59.0976</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -966,10 +1073,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>43.180919999999993</v>
+        <v>55.531394999999996</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -977,12 +1084,698 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21">
+        <v>46.144350000000003</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>71.563500000000005</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>62.14482000000001</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>59.0976</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>55.531394999999996</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>46.144350000000003</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196EB01-C7C0-42A5-A503-848119F12058}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>47.281500000000001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>44.887499999999996</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>39.201749999999997</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>32.917499999999997</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>28.8477</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>47.281500000000001</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>44.887499999999996</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>39.201749999999997</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>32.917499999999997</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>28.8477</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E85C5FF-B08B-481C-B36C-1AFE7DAFA6E9}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>80.243460000000013</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>76.180500000000009</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>66.530970000000011</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>55.348424999999999</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43.271550000000005</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>81.2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>77.180499999999995</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>68.530969999999996</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>56.348424999999999</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45.271549999999998</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D931000D-8D47-4B50-B56C-B6D1AC69189C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>43.75889999999999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>39.9114</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>31.6008</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>24.2136</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>17.954999999999998</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>43.75889999999999</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>39.9114</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>31.6008</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>24.2136</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>17.954999999999998</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5BA13E-D21B-408A-AE1D-B67CC2550A19}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>78.766019999999997</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>74.840519999999998</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>68.257728</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>50.18092</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>31.122000000000003</v>
       </c>
-      <c r="C21">
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>78.766019999999997</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>74.840519999999998</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>68.257728</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>50.18092</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>31.122000000000003</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431A30F-266D-4D08-8C4F-EFFAE08F0176}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
+        <v>77.057729999999992</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>65.354054500000004</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>52.535261249999991</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <v>41.805225000000007</v>
+      </c>
+      <c r="C6" s="8">
         <v>20</v>
       </c>
     </row>

--- a/pwbi/Risultati/TRS ESR.xlsx
+++ b/pwbi/Risultati/TRS ESR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E91CB83-1F31-4A1C-989A-36D56D714F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E094C1-CA30-4E3A-BFC9-1DF7EA46478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{FBEF9A08-792C-429A-A7B6-2C1581D050A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{FBEF9A08-792C-429A-A7B6-2C1581D050A7}"/>
   </bookViews>
   <sheets>
     <sheet name="risultati ESR" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
   <si>
     <t>ID Beam</t>
   </si>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5BA13E-D21B-408A-AE1D-B67CC2550A19}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1705,15 +1705,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431A30F-266D-4D08-8C4F-EFFAE08F0176}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,8 +1723,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1734,8 +1737,11 @@
       <c r="C2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>41.687662499999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1745,8 +1751,11 @@
       <c r="C3" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>38.113762499999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1756,8 +1765,11 @@
       <c r="C4" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>33.261637499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1767,8 +1779,11 @@
       <c r="C5" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>28.618987499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1777,6 +1792,9 @@
       </c>
       <c r="C6" s="8">
         <v>20</v>
+      </c>
+      <c r="D6">
+        <v>23.850224999999998</v>
       </c>
     </row>
   </sheetData>

--- a/pwbi/Risultati/TRS ESR.xlsx
+++ b/pwbi/Risultati/TRS ESR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E094C1-CA30-4E3A-BFC9-1DF7EA46478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097B479-6DD3-4C16-A200-FC0D28B6FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{FBEF9A08-792C-429A-A7B6-2C1581D050A7}"/>
   </bookViews>
@@ -19,7 +19,10 @@
     <sheet name="TRS spalle" sheetId="5" r:id="rId4"/>
     <sheet name="ESR pavim" sheetId="6" r:id="rId5"/>
     <sheet name="TRS pavim" sheetId="7" r:id="rId6"/>
-    <sheet name="Foglio1" sheetId="8" r:id="rId7"/>
+    <sheet name="CV Beams" sheetId="9" r:id="rId7"/>
+    <sheet name="CV spalle" sheetId="10" r:id="rId8"/>
+    <sheet name="CV pavim" sheetId="11" r:id="rId9"/>
+    <sheet name="Foglio1" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="35">
   <si>
     <t>ID Beam</t>
   </si>
@@ -85,6 +88,69 @@
   <si>
     <t>totale</t>
   </si>
+  <si>
+    <t>Travi 3</t>
+  </si>
+  <si>
+    <t>Travi 4</t>
+  </si>
+  <si>
+    <t>Travi 5</t>
+  </si>
+  <si>
+    <t>Travi 6</t>
+  </si>
+  <si>
+    <t>Travi 7</t>
+  </si>
+  <si>
+    <t>Travi 8</t>
+  </si>
+  <si>
+    <t>Travi 9</t>
+  </si>
+  <si>
+    <t>Travi 10</t>
+  </si>
+  <si>
+    <t>Travi 11</t>
+  </si>
+  <si>
+    <t>Travi 12</t>
+  </si>
+  <si>
+    <t>Travi 13</t>
+  </si>
+  <si>
+    <t>Travi 14</t>
+  </si>
+  <si>
+    <t>Travi 15</t>
+  </si>
+  <si>
+    <t>Travi 16</t>
+  </si>
+  <si>
+    <t>Travi 17</t>
+  </si>
+  <si>
+    <t>Travi 18</t>
+  </si>
+  <si>
+    <t>Travi 19</t>
+  </si>
+  <si>
+    <t>Travi 20</t>
+  </si>
+  <si>
+    <t>Travi 21</t>
+  </si>
+  <si>
+    <t>Travi 22</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +170,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F72452D-5D96-4BF6-BE8B-7D425099AFE2}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +612,7 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,184 +623,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>35.952749999999995</v>
+        <v>33.236181818181819</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>39.7575</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>33.131250000000001</v>
+        <v>31.837090909090907</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>34.524900000000002</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>29.411999999999999</v>
+        <v>27.359999999999996</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>26.205749999999998</v>
+        <v>23.16272727272727</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>22.23</v>
+        <v>20.131363636363638</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>35.952749999999995</v>
+        <v>36.594000000000001</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>33.131250000000001</v>
+        <v>34.131599999999999</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>29.411999999999999</v>
+        <v>31.976999999999997</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>26.205749999999998</v>
+        <v>28.898999999999997</v>
       </c>
       <c r="C10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4">
-        <v>22.23</v>
+        <v>23.768999999999995</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>39.7575</v>
+        <v>40.697999999999993</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>34.524900000000002</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>32.832000000000001</v>
+        <v>29.925000000000001</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>31.139099999999999</v>
+        <v>29.07</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>26.368199999999995</v>
+        <v>24.794999999999998</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -736,10 +790,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>39.7575</v>
+        <v>40.697999999999993</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -747,10 +801,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>34.524900000000002</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -758,10 +812,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>32.832000000000001</v>
+        <v>29.925000000000001</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -769,10 +823,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>31.139099999999999</v>
+        <v>29.07</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -780,10 +834,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>26.368199999999995</v>
+        <v>24.794999999999998</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -791,10 +845,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>39.7575</v>
+        <v>40.697999999999993</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -802,10 +856,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>34.524900000000002</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -813,10 +867,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>32.832000000000001</v>
+        <v>29.925000000000001</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -824,10 +878,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>31.139099999999999</v>
+        <v>29.07</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -835,13 +889,1213 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>29.07</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>29.07</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>34.131599999999999</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>33.515999999999998</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>30.437999999999999</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>26.333999999999996</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>29.07</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>29.07</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>29.07</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>29.07</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>29.07</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>29.07</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>34.131599999999999</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <v>33.515999999999998</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>30.437999999999999</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75">
+        <v>26.333999999999996</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>29.07</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>29.07</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>29.07</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>29.07</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>40.697999999999993</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>29.925000000000001</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100">
+        <v>29.07</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101">
+        <v>24.794999999999998</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="2">
+        <v>36.594000000000001</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="3">
+        <v>34.131599999999999</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="3">
+        <v>31.976999999999997</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="3">
+        <v>28.898999999999997</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="4">
+        <v>23.768999999999995</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107">
+        <v>33.236181818181819</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108">
+        <v>31.837090909090907</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109">
+        <v>27.359999999999996</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110">
+        <v>23.16272727272727</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111">
+        <v>20.131363636363638</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>39.7575</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>34.524900000000002</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>32.832000000000001</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>31.139099999999999</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>26.368199999999995</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>39.7575</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>34.524900000000002</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>32.832000000000001</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>31.139099999999999</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>26.368199999999995</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="B122">
+        <v>39.7575</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>34.524900000000002</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>32.832000000000001</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>31.139099999999999</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
         <v>26.368199999999995</v>
       </c>
-      <c r="C26">
-        <v>20</v>
+      <c r="C126">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431A30F-266D-4D08-8C4F-EFFAE08F0176}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
+        <v>77.057729999999992</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>41.687662499999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>73</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>38.113762499999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>65.354054500000004</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>33.261637499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>52.535261249999991</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>28.618987499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
+        <v>41.805225000000007</v>
+      </c>
+      <c r="C6" s="8">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>23.850224999999998</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BFA9D2-7117-4D96-8315-62912B78EA39}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>77.657939999999982</v>
+        <v>71.790152727272741</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -889,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>71.563500000000005</v>
+        <v>68.768116363636366</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -900,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>63.529919999999997</v>
+        <v>59.097599999999993</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -911,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>56.080304999999989</v>
+        <v>50.031490909090905</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -922,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>46.683000000000007</v>
+        <v>43.483745454545456</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -933,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77.657939999999982</v>
+        <v>79.043040000000005</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -944,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>71.563500000000005</v>
+        <v>73.724255999999997</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -955,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>63.529919999999997</v>
+        <v>69.070319999999995</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -966,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>56.080304999999989</v>
+        <v>62.421839999999996</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -977,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>46.683000000000007</v>
+        <v>51.341039999999985</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -985,10 +2239,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>71.563500000000005</v>
+        <v>87.907679999999999</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -996,10 +2250,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>62.14482000000001</v>
+        <v>81.259200000000007</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1007,10 +2261,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>59.0976</v>
+        <v>64.638000000000005</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1018,10 +2272,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>55.531394999999996</v>
+        <v>62.791199999999996</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1029,10 +2283,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>46.144350000000003</v>
+        <v>53.557200000000002</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -1040,10 +2294,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>71.563500000000005</v>
+        <v>86.907679999999999</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1051,10 +2305,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>62.14482000000001</v>
+        <v>80.259200000000007</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1062,10 +2316,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>59.0976</v>
+        <v>63.637999999999998</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1073,10 +2327,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>55.531394999999996</v>
+        <v>61.791200000000003</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1084,10 +2338,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>46.144350000000003</v>
+        <v>52.557200000000002</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1095,10 +2349,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>71.563500000000005</v>
+        <v>87.907679999999999</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1106,10 +2360,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>62.14482000000001</v>
+        <v>81.259200000000007</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1117,10 +2371,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>59.0976</v>
+        <v>64.638000000000005</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -1128,10 +2382,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>55.531394999999996</v>
+        <v>62.791199999999996</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -1139,12 +2393,1112 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>73.724255999999997</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>72.394560000000013</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>65.746080000000006</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>56.881439999999991</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>41.368320000000004</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>61.891199999999998</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>80.259200000000007</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>62.791200000000003</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>68.638000000000005</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>65.791200000000003</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>73.724255999999997</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <v>72.394560000000013</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>65.746080000000006</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75">
+        <v>56.881439999999991</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>41.368320000000004</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>78.259200000000007</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>62.637999999999998</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>60.791200000000003</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>87.907679999999999</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98">
+        <v>81.259200000000007</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>64.638000000000005</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100">
+        <v>62.791199999999996</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101">
+        <v>53.557200000000002</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>79.043040000000005</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>73.724255999999997</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104">
+        <v>69.070319999999995</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105">
+        <v>62.421839999999996</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106">
+        <v>51.341039999999985</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107">
+        <v>71.790152727272741</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108">
+        <v>68.768116363636366</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109">
+        <v>59.097599999999993</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110">
+        <v>50.031490909090905</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111">
+        <v>43.483745454545456</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>71.563500000000005</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>62.14482000000001</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>59.0976</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>55.531394999999996</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>46.144350000000003</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>71.563500000000005</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>62.14482000000001</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>59.0976</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>55.531394999999996</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>46.144350000000003</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="B122">
+        <v>71.563500000000005</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>62.14482000000001</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>59.0976</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>55.531394999999996</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
         <v>46.144350000000003</v>
       </c>
-      <c r="C26">
+      <c r="C126">
         <v>20</v>
       </c>
     </row>
@@ -1158,7 +3512,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,7 +3923,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,97 +4058,1674 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431A30F-266D-4D08-8C4F-EFFAE08F0176}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636DF17C-C11C-4BB0-BCAD-5C096B893046}">
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8">
-        <v>77.057729999999992</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>41.687662499999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1.7418181818181817</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8">
-        <v>73</v>
-      </c>
-      <c r="C3" s="8">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>38.113762499999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1.8509090909090908</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8">
-        <v>65.354054500000004</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>33.261637499999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8">
-        <v>52.535261249999991</v>
-      </c>
-      <c r="C5" s="8">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>28.618987499999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.5272727272727273</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8">
-        <v>41.805225000000007</v>
-      </c>
-      <c r="C6" s="8">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>23.850224999999998</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.48</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1.84</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2.08</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2.4800000000000004</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1.4</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1.45</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>1.4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>2.4</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2.7</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>1.4</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>2.5</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>1.02</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>1.4</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>1.8</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>2.1</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>1.96</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>1.4</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>2.5</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>1.4</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>2.5</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>1.4</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>2.5</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>1.4</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>2.5</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>1.4</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>2.5</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>1.4</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>2.5</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>1.96</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>1.4</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>2.5</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>1.4</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>2.4</v>
+      </c>
+      <c r="C85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>2.7</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>1.4</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91">
+        <v>2.5</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>1.02</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>1.4</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94">
+        <v>1.8</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <v>2.1</v>
+      </c>
+      <c r="C95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98">
+        <v>1.4</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101">
+        <v>2.5</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>1.48</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104">
+        <v>1.84</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105">
+        <v>2.08</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106">
+        <v>2.4800000000000004</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107">
+        <v>1.7418181818181817</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108">
+        <v>1.8509090909090908</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110">
+        <v>2.5272727272727273</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111">
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>1.75</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>2.3058823529411763</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>2.6235294117647059</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>1.75</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>2.3058823529411763</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>2.6235294117647059</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>1.75</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>2.3058823529411763</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>2.6235294117647059</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BC8E49-AD5A-425C-8E3E-856147BA0B14}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1.7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.88</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2.39333333333333</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2.625</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1.7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.9</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2.15</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2.4933333333333332</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C9D1C-8050-444C-9DCA-2517FA8CC235}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1.4914285714285715</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.7428571428571429</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2.2838095238095235</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>3.1636363636363636</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1.4914285714285715</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1.7428571428571429</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2.2838095238095235</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>3.1636363636363636</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
